--- a/inst/extdata/label_translations.xlsx
+++ b/inst/extdata/label_translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="316">
   <si>
     <t>EN</t>
   </si>
@@ -929,6 +929,36 @@
   </si>
   <si>
     <t>微克/立方米</t>
+  </si>
+  <si>
+    <t>Wind&amp;Solar</t>
+  </si>
+  <si>
+    <t>风光</t>
+  </si>
+  <si>
+    <t>Power generation mix by province</t>
+  </si>
+  <si>
+    <t>各省电源类型</t>
+  </si>
+  <si>
+    <t>most recent 12 months of data, up to</t>
+  </si>
+  <si>
+    <t>此前12个月数据，至</t>
+  </si>
+  <si>
+    <t>Shares of power generation sources in growth from 2020 to present</t>
+  </si>
+  <si>
+    <t>2020年至今发电增量中各类型电源占比</t>
+  </si>
+  <si>
+    <t>The present period refers to the most recent 12 months of data, up to</t>
+  </si>
+  <si>
+    <t>当前阶段指此前12个月数据，至</t>
   </si>
 </sst>
 </file>
@@ -2571,6 +2601,46 @@
         <v>305</v>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/inst/extdata/label_translations.xlsx
+++ b/inst/extdata/label_translations.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Desktop\CREA Github\temp\china_co2\inst\extdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799F3364-C2BA-41C9-88BB-8545FC1A2C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="795" yWindow="915" windowWidth="19980" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -472,15 +481,9 @@
     <t>其它成品油</t>
   </si>
   <si>
-    <t>Monthly average pollutant concentrations in province capitals</t>
-  </si>
-  <si>
     <t>省会城市月均污染物浓度</t>
   </si>
   <si>
-    <t>year-on-year changes in pollutant concentrations in province capitals</t>
-  </si>
-  <si>
     <t>省会城市污染物浓度同比变化</t>
   </si>
   <si>
@@ -889,9 +892,6 @@
     <t>12个月移动总和</t>
   </si>
   <si>
-    <t>Ozone concentrations in province capitals</t>
-  </si>
-  <si>
     <t>省会城市臭氧浓度</t>
   </si>
   <si>
@@ -913,9 +913,6 @@
     <t>微克/立方米，日最大8小时平均第90百分位浓度</t>
   </si>
   <si>
-    <t>PM2.5 concentrations in province capitals</t>
-  </si>
-  <si>
     <t>省会城市PM2.5浓度</t>
   </si>
   <si>
@@ -959,26 +956,39 @@
   </si>
   <si>
     <t>当前阶段指此前12个月数据，至</t>
+  </si>
+  <si>
+    <t>Monthly average pollutant concentrations in provincial capitals</t>
+  </si>
+  <si>
+    <t>year-on-year changes in pollutant concentrations in provincial capitals</t>
+  </si>
+  <si>
+    <t>Ozone concentrations in provincial capitals</t>
+  </si>
+  <si>
+    <t>PM2.5 concentrations in provincial capitals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
@@ -988,7 +998,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -998,35 +1008,40 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1216,24 +1231,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B176"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="51.88"/>
-    <col customWidth="1" min="2" max="2" width="30.88"/>
+    <col min="1" max="1" width="51.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1249,7 +1269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1257,7 +1277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1281,7 +1301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1289,7 +1309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,7 +1325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1313,7 +1333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1321,7 +1341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1329,7 +1349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1337,7 +1357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1345,7 +1365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1353,7 +1373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1361,7 +1381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1369,7 +1389,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1377,7 +1397,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1385,7 +1405,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1393,7 +1413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1401,7 +1421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1409,7 +1429,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1417,7 +1437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1425,7 +1445,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1433,7 +1453,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1441,7 +1461,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1449,7 +1469,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1457,7 +1477,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1465,7 +1485,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1473,7 +1493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1481,7 +1501,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1489,7 +1509,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1497,7 +1517,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1505,7 +1525,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1513,7 +1533,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -1521,7 +1541,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -1529,7 +1549,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -1537,7 +1557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -1545,7 +1565,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -1553,7 +1573,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -1561,7 +1581,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -1569,7 +1589,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -1577,7 +1597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1585,7 +1605,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1593,7 +1613,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -1601,7 +1621,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -1609,7 +1629,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -1617,7 +1637,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -1625,7 +1645,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -1633,7 +1653,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -1641,7 +1661,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -1649,7 +1669,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -1657,7 +1677,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -1665,7 +1685,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -1673,7 +1693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
@@ -1681,7 +1701,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
@@ -1689,7 +1709,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
@@ -1697,7 +1717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>113</v>
       </c>
@@ -1705,7 +1725,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>115</v>
       </c>
@@ -1713,7 +1733,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>117</v>
       </c>
@@ -1721,7 +1741,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>119</v>
       </c>
@@ -1729,7 +1749,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>121</v>
       </c>
@@ -1737,7 +1757,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
@@ -1745,7 +1765,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>125</v>
       </c>
@@ -1753,7 +1773,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
@@ -1761,7 +1781,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>129</v>
       </c>
@@ -1769,7 +1789,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>131</v>
       </c>
@@ -1777,7 +1797,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>133</v>
       </c>
@@ -1785,7 +1805,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
@@ -1793,7 +1813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>136</v>
       </c>
@@ -1801,7 +1821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>137</v>
       </c>
@@ -1809,7 +1829,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
         <v>139</v>
       </c>
@@ -1817,7 +1837,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
@@ -1825,7 +1845,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
@@ -1833,7 +1853,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -1841,7 +1861,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
         <v>147</v>
       </c>
@@ -1849,7 +1869,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
         <v>149</v>
       </c>
@@ -1857,7 +1877,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
         <v>151</v>
       </c>
@@ -1865,351 +1885,351 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="1" t="s">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="s">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="s">
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="123">
+    <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
         <v>22</v>
       </c>
@@ -2217,15 +2237,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
         <v>16</v>
       </c>
@@ -2233,415 +2253,415 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="134">
+    <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B137" s="1" t="s">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B140" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="s">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="s">
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="s">
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="s">
+    <row r="147" spans="1:2">
+      <c r="A147" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="s">
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B150" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="B151" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="s">
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="s">
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="s">
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="s">
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B156" s="1" t="s">
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B157" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="s">
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="s">
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B160" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="s">
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B163" s="1" t="s">
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B164" s="1" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B165" s="1" t="s">
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B166" s="1" t="s">
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B167" s="1" t="s">
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="s">
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="s">
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="s">
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="s">
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="s">
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="s">
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="s">
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/extdata/label_translations.xlsx
+++ b/inst/extdata/label_translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Desktop\CREA Github\temp\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799F3364-C2BA-41C9-88BB-8545FC1A2C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB0CA6A-CF78-46C4-AC2C-45603AB06B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="915" windowWidth="19980" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8820" yWindow="885" windowWidth="19980" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="318">
   <si>
     <t>EN</t>
   </si>
@@ -968,6 +968,12 @@
   </si>
   <si>
     <t>PM2.5 concentrations in provincial capitals</t>
+  </si>
+  <si>
+    <t>数据截至</t>
+  </si>
+  <si>
+    <t>Data until</t>
   </si>
 </sst>
 </file>
@@ -1241,10 +1247,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1253,7 +1259,7 @@
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="12.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="12.75">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="12.75">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1301,7 +1307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="12.75">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1309,7 +1315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="12.75">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="12.75">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="12.75">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="12.75">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="12.75">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="12.75">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="12.75">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="12.75">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="12.75">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="12.75">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="12.75">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="12.75">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1405,7 +1411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="12.75">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="12.75">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="12.75">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="12.75">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1437,7 +1443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="12.75">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="12.75">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="12.75">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" ht="12.75">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="12.75">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="12.75">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" ht="12.75">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1493,7 +1499,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" ht="12.75">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" ht="12.75">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1509,7 +1515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" ht="12.75">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" ht="12.75">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" ht="12.75">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" ht="12.75">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -1541,7 +1547,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" ht="12.75">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -1549,7 +1555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" ht="12.75">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -1557,7 +1563,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" ht="12.75">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" ht="12.75">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -1573,7 +1579,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" ht="12.75">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -1581,7 +1587,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" ht="12.75">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -1589,7 +1595,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" ht="12.75">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -1597,7 +1603,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" ht="12.75">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" ht="12.75">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" ht="12.75">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" ht="12.75">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -1629,7 +1635,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" ht="12.75">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" ht="12.75">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -1645,7 +1651,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" ht="12.75">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" ht="12.75">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" ht="12.75">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -1669,7 +1675,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" ht="12.75">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" ht="12.75">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -1685,7 +1691,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" ht="12.75">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" ht="12.75">
       <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" ht="12.75">
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" ht="12.75">
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" ht="12.75">
       <c r="A59" s="1" t="s">
         <v>113</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" ht="12.75">
       <c r="A60" s="1" t="s">
         <v>115</v>
       </c>
@@ -1733,7 +1739,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" ht="12.75">
       <c r="A61" s="1" t="s">
         <v>117</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" ht="12.75">
       <c r="A62" s="1" t="s">
         <v>119</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" ht="12.75">
       <c r="A63" s="1" t="s">
         <v>121</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" ht="12.75">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" ht="12.75">
       <c r="A65" s="1" t="s">
         <v>125</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" ht="12.75">
       <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" ht="12.75">
       <c r="A67" s="1" t="s">
         <v>129</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" ht="12.75">
       <c r="A68" s="1" t="s">
         <v>131</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" ht="12.75">
       <c r="A69" s="1" t="s">
         <v>133</v>
       </c>
@@ -1805,7 +1811,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" ht="12.75">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" ht="12.75">
       <c r="A71" s="1" t="s">
         <v>136</v>
       </c>
@@ -1821,7 +1827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" ht="12.75">
       <c r="A72" s="1" t="s">
         <v>137</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" ht="12.75">
       <c r="A73" s="1" t="s">
         <v>139</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" ht="12.75">
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" ht="12.75">
       <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" ht="12.75">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -1861,7 +1867,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" ht="12.75">
       <c r="A77" s="1" t="s">
         <v>147</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" ht="12.75">
       <c r="A78" s="1" t="s">
         <v>149</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" ht="12.75">
       <c r="A79" s="1" t="s">
         <v>151</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" ht="12.75">
       <c r="A80" s="1" t="s">
         <v>312</v>
       </c>
@@ -1893,7 +1899,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" ht="12.75">
       <c r="A81" s="1" t="s">
         <v>313</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" ht="12.75">
       <c r="A82" s="1" t="s">
         <v>155</v>
       </c>
@@ -1909,7 +1915,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" ht="12.75">
       <c r="A83" s="1" t="s">
         <v>157</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" ht="12.75">
       <c r="A84" s="1" t="s">
         <v>159</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" ht="12.75">
       <c r="A85" s="1" t="s">
         <v>161</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" ht="12.75">
       <c r="A86" s="1" t="s">
         <v>163</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" ht="12.75">
       <c r="A87" s="1" t="s">
         <v>165</v>
       </c>
@@ -1949,7 +1955,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" ht="12.75">
       <c r="A88" s="1" t="s">
         <v>167</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" ht="12.75">
       <c r="A89" s="1" t="s">
         <v>169</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" ht="12.75">
       <c r="A90" s="1" t="s">
         <v>171</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" ht="12.75">
       <c r="A91" s="1" t="s">
         <v>173</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" ht="12.75">
       <c r="A92" s="1" t="s">
         <v>175</v>
       </c>
@@ -1989,7 +1995,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" ht="12.75">
       <c r="A93" s="1" t="s">
         <v>177</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" ht="12.75">
       <c r="A94" s="1" t="s">
         <v>178</v>
       </c>
@@ -2005,7 +2011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" ht="12.75">
       <c r="A95" s="1" t="s">
         <v>179</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" ht="12.75">
       <c r="A96" s="1" t="s">
         <v>180</v>
       </c>
@@ -2021,7 +2027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" ht="12.75">
       <c r="A97" s="1" t="s">
         <v>181</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" ht="12.75">
       <c r="A98" s="1" t="s">
         <v>182</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" ht="12.75">
       <c r="A99" s="1" t="s">
         <v>183</v>
       </c>
@@ -2045,7 +2051,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" ht="12.75">
       <c r="A100" s="1" t="s">
         <v>185</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" ht="12.75">
       <c r="A101" s="1" t="s">
         <v>187</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" ht="12.75">
       <c r="A102" s="1" t="s">
         <v>189</v>
       </c>
@@ -2069,7 +2075,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" ht="12.75">
       <c r="A103" s="1" t="s">
         <v>191</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" ht="12.75">
       <c r="A104" s="1" t="s">
         <v>193</v>
       </c>
@@ -2085,7 +2091,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" ht="12.75">
       <c r="A105" s="1" t="s">
         <v>195</v>
       </c>
@@ -2093,7 +2099,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" ht="12.75">
       <c r="A106" s="1" t="s">
         <v>197</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" ht="12.75">
       <c r="A107" s="1" t="s">
         <v>199</v>
       </c>
@@ -2109,7 +2115,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" ht="12.75">
       <c r="A108" s="1" t="s">
         <v>201</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" ht="12.75">
       <c r="A109" s="1" t="s">
         <v>203</v>
       </c>
@@ -2125,7 +2131,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" ht="12.75">
       <c r="A110" s="1" t="s">
         <v>205</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" ht="12.75">
       <c r="A111" s="1" t="s">
         <v>207</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" ht="12.75">
       <c r="A112" s="1" t="s">
         <v>209</v>
       </c>
@@ -2149,7 +2155,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" ht="12.75">
       <c r="A113" s="1" t="s">
         <v>211</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" ht="12.75">
       <c r="A114" s="1" t="s">
         <v>213</v>
       </c>
@@ -2165,7 +2171,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" ht="12.75">
       <c r="A115" s="1" t="s">
         <v>215</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" ht="12.75">
       <c r="A116" s="1" t="s">
         <v>216</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" ht="12.75">
       <c r="A117" s="1" t="s">
         <v>218</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" ht="12.75">
       <c r="A118" s="1" t="s">
         <v>220</v>
       </c>
@@ -2197,7 +2203,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" ht="12.75">
       <c r="A119" s="1" t="s">
         <v>222</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" ht="12.75">
       <c r="A120" s="1" t="s">
         <v>224</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" ht="12.75">
       <c r="A121" s="1" t="s">
         <v>226</v>
       </c>
@@ -2221,7 +2227,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" ht="12.75">
       <c r="A122" s="1" t="s">
         <v>228</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" ht="12.75">
       <c r="A123" s="1" t="s">
         <v>22</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" ht="12.75">
       <c r="A124" s="1" t="s">
         <v>20</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" ht="12.75">
       <c r="A125" s="1" t="s">
         <v>16</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" ht="12.75">
       <c r="A126" s="1" t="s">
         <v>24</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" ht="12.75">
       <c r="A127" s="1" t="s">
         <v>232</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" ht="12.75">
       <c r="A128" s="1" t="s">
         <v>232</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" ht="12.75">
       <c r="A129" s="1" t="s">
         <v>233</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" ht="12.75">
       <c r="A130" s="1" t="s">
         <v>234</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" ht="12.75">
       <c r="A131" s="1" t="s">
         <v>96</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" ht="12.75">
       <c r="A132" s="1" t="s">
         <v>235</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" ht="12.75">
       <c r="A133" s="1" t="s">
         <v>237</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" ht="12.75">
       <c r="A134" s="1" t="s">
         <v>233</v>
       </c>
@@ -2325,7 +2331,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" ht="12.75">
       <c r="A135" s="1" t="s">
         <v>234</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" ht="12.75">
       <c r="A136" s="1" t="s">
         <v>239</v>
       </c>
@@ -2341,7 +2347,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" ht="12.75">
       <c r="A137" s="1" t="s">
         <v>241</v>
       </c>
@@ -2349,7 +2355,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" ht="12.75">
       <c r="A138" s="1" t="s">
         <v>175</v>
       </c>
@@ -2357,7 +2363,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" ht="12.75">
       <c r="A139" s="1" t="s">
         <v>244</v>
       </c>
@@ -2365,7 +2371,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" ht="12.75">
       <c r="A140" s="1" t="s">
         <v>246</v>
       </c>
@@ -2373,7 +2379,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" ht="12.75">
       <c r="A141" s="1" t="s">
         <v>247</v>
       </c>
@@ -2381,7 +2387,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" ht="12.75">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" ht="12.75">
       <c r="A143" s="1" t="s">
         <v>251</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" ht="12.75">
       <c r="A144" s="2" t="s">
         <v>253</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" ht="12.75">
       <c r="A145" s="1" t="s">
         <v>255</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" ht="12.75">
       <c r="A146" s="1" t="s">
         <v>257</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" ht="12.75">
       <c r="A147" s="2" t="s">
         <v>259</v>
       </c>
@@ -2429,7 +2435,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" ht="12.75">
       <c r="A148" s="1" t="s">
         <v>261</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" ht="12.75">
       <c r="A149" s="1" t="s">
         <v>263</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" ht="12.75">
       <c r="A150" s="1" t="s">
         <v>265</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" ht="12.75">
       <c r="A151" s="1" t="s">
         <v>266</v>
       </c>
@@ -2461,7 +2467,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" ht="12.75">
       <c r="A152" s="1" t="s">
         <v>267</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" ht="12.75">
       <c r="A153" s="1" t="s">
         <v>269</v>
       </c>
@@ -2477,7 +2483,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" ht="12.75">
       <c r="A154" s="1" t="s">
         <v>271</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" ht="12.75">
       <c r="A155" s="1" t="s">
         <v>273</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" ht="12.75">
       <c r="A156" s="1" t="s">
         <v>275</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" ht="12.75">
       <c r="A157" s="1" t="s">
         <v>266</v>
       </c>
@@ -2509,7 +2515,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" ht="12.75">
       <c r="A158" s="1" t="s">
         <v>278</v>
       </c>
@@ -2517,7 +2523,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" ht="12.75">
       <c r="A159" s="1" t="s">
         <v>280</v>
       </c>
@@ -2525,7 +2531,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" ht="12.75">
       <c r="A160" s="1" t="s">
         <v>282</v>
       </c>
@@ -2533,7 +2539,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" ht="12.75">
       <c r="A161" s="1" t="s">
         <v>283</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" ht="12.75">
       <c r="A162" s="1" t="s">
         <v>285</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" ht="12.75">
       <c r="A163" s="1" t="s">
         <v>287</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" ht="12.75">
       <c r="A164" s="1" t="s">
         <v>171</v>
       </c>
@@ -2565,7 +2571,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" ht="12.75">
       <c r="A165" s="1" t="s">
         <v>314</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" ht="12.75">
       <c r="A166" s="1" t="s">
         <v>291</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" ht="12.75">
       <c r="A167" s="1" t="s">
         <v>293</v>
       </c>
@@ -2589,7 +2595,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" ht="12.75">
       <c r="A168" s="1" t="s">
         <v>295</v>
       </c>
@@ -2597,7 +2603,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" ht="12.75">
       <c r="A169" s="1" t="s">
         <v>315</v>
       </c>
@@ -2605,7 +2611,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" ht="12.75">
       <c r="A170" s="1" t="s">
         <v>298</v>
       </c>
@@ -2613,7 +2619,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" ht="12.75">
       <c r="A171" s="1" t="s">
         <v>300</v>
       </c>
@@ -2621,7 +2627,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" ht="12.75">
       <c r="A172" s="1" t="s">
         <v>302</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" ht="12.75">
       <c r="A173" s="1" t="s">
         <v>304</v>
       </c>
@@ -2637,7 +2643,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" ht="12.75">
       <c r="A174" s="1" t="s">
         <v>306</v>
       </c>
@@ -2645,7 +2651,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" ht="12.75">
       <c r="A175" s="1" t="s">
         <v>308</v>
       </c>
@@ -2653,12 +2659,20 @@
         <v>309</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" ht="12.75">
       <c r="A176" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A177" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B177" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/label_translations.xlsx
+++ b/inst/extdata/label_translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Desktop\CREA Github\temp\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB0CA6A-CF78-46C4-AC2C-45603AB06B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994B070C-72AE-47DD-A3D3-734A37DCE720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="885" windowWidth="19980" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="320">
   <si>
     <t>EN</t>
   </si>
@@ -974,6 +974,12 @@
   </si>
   <si>
     <t>Data until</t>
+  </si>
+  <si>
+    <t>90th percentile of daily 8-hour maximum</t>
+  </si>
+  <si>
+    <t>日最大8小时平均第90百分位浓度</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1253,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:B178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177"/>
+      <selection activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2675,6 +2681,14 @@
         <v>316</v>
       </c>
     </row>
+    <row r="178" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A178" t="s">
+        <v>318</v>
+      </c>
+      <c r="B178" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/label_translations.xlsx
+++ b/inst/extdata/label_translations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Desktop\CREA Github\temp\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994B070C-72AE-47DD-A3D3-734A37DCE720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF05886-5B40-427D-A918-D4FB84ED0027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="322">
   <si>
     <t>EN</t>
   </si>
@@ -980,6 +980,12 @@
   </si>
   <si>
     <t>日最大8小时平均第90百分位浓度</t>
+  </si>
+  <si>
+    <t>Monthly pollutant concentrations in provincial capitals (90th percentile)</t>
+  </si>
+  <si>
+    <t>省会城市月污染物浓度 (第90百分位)</t>
   </si>
 </sst>
 </file>
@@ -1253,10 +1259,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B178"/>
+  <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2689,6 +2695,14 @@
         <v>319</v>
       </c>
     </row>
+    <row r="179" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A179" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/label_translations.xlsx
+++ b/inst/extdata/label_translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Desktop\CREA Github\temp\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF05886-5B40-427D-A918-D4FB84ED0027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7D05DA-E0E3-4245-915A-CF1ABE3AFDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="1335" windowWidth="14010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="351">
   <si>
     <t>EN</t>
   </si>
@@ -986,6 +986,93 @@
   </si>
   <si>
     <t>省会城市月污染物浓度 (第90百分位)</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas </t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Growth in monthly power generation by source</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>太瓦时</t>
+  </si>
+  <si>
+    <t>月度发电量增长（按发电类型分类）</t>
+  </si>
+  <si>
+    <t>煤电</t>
+  </si>
+  <si>
+    <t>气电</t>
+  </si>
+  <si>
+    <t>生物质能发电</t>
+  </si>
+  <si>
+    <t>Growth in monthly clean and total power generation by source</t>
+  </si>
+  <si>
+    <t>月度清洁能源发电量增长（按类型分）</t>
+  </si>
+  <si>
+    <t>Coal &amp; gas</t>
+  </si>
+  <si>
+    <t>Hydro, nuclear, &amp; biomass</t>
+  </si>
+  <si>
+    <t>Solar &amp; wind</t>
+  </si>
+  <si>
+    <t>水电、核电和生物质能发电</t>
+  </si>
+  <si>
+    <t>太阳能发电和风电</t>
+  </si>
+  <si>
+    <t>小时</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>月度发电量结构</t>
+  </si>
+  <si>
+    <t>Monthly power generation mix</t>
+  </si>
+  <si>
+    <t>吉瓦</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>月度发电量占比（按类型分类）</t>
+  </si>
+  <si>
+    <t>Monthly shares of generation by technology</t>
+  </si>
+  <si>
+    <t>generation share</t>
+  </si>
+  <si>
+    <t>发电量占比</t>
+  </si>
+  <si>
+    <t>月度发电设备利用小时数</t>
+  </si>
+  <si>
+    <t>Monthly running hours</t>
   </si>
 </sst>
 </file>
@@ -1259,10 +1346,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B179"/>
+  <dimension ref="A1:B194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2703,6 +2790,126 @@
         <v>321</v>
       </c>
     </row>
+    <row r="180" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A180" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A181" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A182" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A183" t="s">
+        <v>325</v>
+      </c>
+      <c r="B183" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A184" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B184" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A185" t="s">
+        <v>332</v>
+      </c>
+      <c r="B185" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A186" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A187" t="s">
+        <v>335</v>
+      </c>
+      <c r="B187" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A188" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B188" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A189" t="s">
+        <v>340</v>
+      </c>
+      <c r="B189" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A190" t="s">
+        <v>342</v>
+      </c>
+      <c r="B190" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A191" t="s">
+        <v>344</v>
+      </c>
+      <c r="B191" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A192" t="s">
+        <v>346</v>
+      </c>
+      <c r="B192" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A193" t="s">
+        <v>347</v>
+      </c>
+      <c r="B193" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A194" t="s">
+        <v>350</v>
+      </c>
+      <c r="B194" t="s">
+        <v>349</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/label_translations.xlsx
+++ b/inst/extdata/label_translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Desktop\CREA Github\temp\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7D05DA-E0E3-4245-915A-CF1ABE3AFDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC06A9B-98C3-4613-9BDC-D19D547D3CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="1335" windowWidth="14010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14790" yWindow="1335" windowWidth="14010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="353">
   <si>
     <t>EN</t>
   </si>
@@ -1073,6 +1073,12 @@
   </si>
   <si>
     <t>Monthly running hours</t>
+  </si>
+  <si>
+    <t>Total growth</t>
+  </si>
+  <si>
+    <t>总发电量增长</t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1352,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B194"/>
+  <dimension ref="A1:B195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2910,6 +2916,14 @@
         <v>349</v>
       </c>
     </row>
+    <row r="195" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A195" t="s">
+        <v>351</v>
+      </c>
+      <c r="B195" t="s">
+        <v>352</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/label_translations.xlsx
+++ b/inst/extdata/label_translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Desktop\CREA Github\temp\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC06A9B-98C3-4613-9BDC-D19D547D3CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D76905-6A13-4686-B771-D5358D0F4FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14790" yWindow="1335" windowWidth="14010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="915" windowWidth="14010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="355">
   <si>
     <t>EN</t>
   </si>
@@ -1079,6 +1079,12 @@
   </si>
   <si>
     <t>总发电量增长</t>
+  </si>
+  <si>
+    <t>Monthly power generation by technology</t>
+  </si>
+  <si>
+    <t>月度发电量（按类型分类）</t>
   </si>
 </sst>
 </file>
@@ -1352,10 +1358,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B195"/>
+  <dimension ref="A1:B196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195"/>
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2924,6 +2930,14 @@
         <v>352</v>
       </c>
     </row>
+    <row r="196" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A196" t="s">
+        <v>353</v>
+      </c>
+      <c r="B196" t="s">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/label_translations.xlsx
+++ b/inst/extdata/label_translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Desktop\CREA Github\temp\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D76905-6A13-4686-B771-D5358D0F4FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D565A6-C39F-4EC5-9F5C-6ABE612FD387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="915" windowWidth="14010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="358">
   <si>
     <t>EN</t>
   </si>
@@ -1085,6 +1085,15 @@
   </si>
   <si>
     <t>月度发电量（按类型分类）</t>
+  </si>
+  <si>
+    <t>Year-on-year change</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -1358,10 +1367,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B196"/>
+  <dimension ref="A1:B199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2938,6 +2947,30 @@
         <v>354</v>
       </c>
     </row>
+    <row r="197" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A197" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A198" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A199" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
